--- a/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>003447</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>英大睿鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.87</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.34</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003447</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合C</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>63.08</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.04</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>290008</t>
+          <t>460002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰信发展主题混合</t>
+          <t>华泰柏瑞积极成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.30</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>460002</t>
+          <t>290008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合A</t>
+          <t>泰信发展主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -706,25 +786,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>960030</t>
+          <t>001978</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合H</t>
+          <t>泰信互联网+主题灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -734,25 +824,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001978</t>
+          <t>960030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰信互联网+主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>86.01</t>
-        </is>
-      </c>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -832,7 +833,6 @@
           <t>华泰柏瑞积极成长混合H</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>74.75</t>
@@ -848,6 +848,138 @@
       </c>
       <c r="H6" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005386</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005387</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -985,4 +986,1086 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3219</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000065</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富焦点驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2068,4 +2069,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2077,7 +2078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2088,17 +2089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2108,14 +2129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2124,14 +2167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4513</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2140,14 +2205,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -2156,13 +2243,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>51.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2780,7 +2781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2791,17 +2792,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2811,14 +2832,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.61</v>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2827,14 +2870,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2843,14 +2908,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2859,14 +2946,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.59</v>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2875,13 +2984,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3027,7 +3028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3038,17 +3039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3058,14 +3079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.36</v>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9397</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3074,14 +3117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.61</v>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6105</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3090,14 +3155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3106,14 +3193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06</v>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3122,14 +3231,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.59</v>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3138,13 +3269,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>2.92</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.61</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
         <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.06</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -600,6 +617,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6976</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4794</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3816</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012976</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016620</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016246</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1471,7 +2228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2173,7 +2930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3255,7 +4012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3387,7 +4144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3626,7 +4383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600483-福能股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>2.79</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>2.92</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.36</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.61</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
         <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -616,7 +633,1221 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6932</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银可转债债券</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>49.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014329</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>45.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001633</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012435</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家招瑞回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001634</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012287</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东海启航6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014330</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>45.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013377</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东海启航6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012436</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家招瑞回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1356,7 +2587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1982,7 +3213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2228,7 +3459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2930,7 +4161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4012,7 +5243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4144,7 +5375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4381,174 +5612,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003447</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0390</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003446</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0379</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001678</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>英大国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0318</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>